--- a/database/csv/data.xlsx
+++ b/database/csv/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khwarizmicoding\OneDrive\Desktop\sara_sara_mo\application\pfe\database\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khwarizmicoding\OneDrive\Desktop\sara_sara_mo\application\pfeSara\database\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E31776-D516-4A9F-A267-96E65A7BC77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCF028D-8E99-4A16-8010-8795E24F86E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,9 +246,6 @@
     <t>economy</t>
   </si>
   <si>
-    <t>Hôpital@1:3|8:4|10:2;Diagnostic@18:3|27:2|30:1;Traitement@15:2|24:4|30:4;Prescription@20:1|28:4;Chirurgie@3:3|14:4|28:3;Anesthésie@3:4|23:2;Cabinet@11:4|25:1|30:3; Spécialiste@11:5|24:3|30:1;Stéthoscope@2:4|16:4|28:2;Radiographie@4:3|14:2|22:4;Prélèvement sanguin@4:2|26:4;Vaccination@6:5|9:3|29:1;analyse@6:4|26:4|32:2</t>
-  </si>
-  <si>
     <t>Positif@3:1|12:4|23:3|32:1;négatif@6:1|11:3|25:2;Analyse@5:5|13:1|25:3;Echantillon@6:3|11:1|24:1;Laboratoire@11:3|23:4|25:1;Instrumentation@6:2|29:1;Prélèvement@11:2|17:3|29:2;Techniques d'analyse@5:2|16:1|28:3;Contrôle qualité@3:1|18:3|20:2;Calibration@13:2|20:3|27:2;Sécurité en laboratoire@1:2|8:2|16:1;Interprétation des résultats@5:1|28:1;Normes de laboratoire@9:3|15:1|28:1;Biosécurité@8:1|9:3|30:1;Dépannage@11:1|24:2|35:1</t>
   </si>
   <si>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t>corona virus|2019-03-10|algerie|30:2@9:3@32:5</t>
+  </si>
+  <si>
+    <t>Hôpital@1:3|8:4|10:2;Diagnostic@18:3|27:2|7:1;Traitement@15:2|24:4|18:4;Prescription@20:1|28:4;Chirurgie@3:3|14:4|28:3;Anesthésie@3:4|23:2;Cabinet@11:4|25:1|10:3; Spécialiste@11:5|24:3|21:1;Stéthoscope@2:4|16:4|28:2;Radiographie@4:3|14:2|22:4;Prélèvement sanguin@4:2|26:4;Vaccination@6:5|9:3|29:1;analyse@6:4|26:4|32:2</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -791,7 +791,7 @@
         <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
         <v>66</v>
@@ -826,7 +826,7 @@
         <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -858,7 +858,7 @@
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -890,7 +890,7 @@
         <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s">
         <v>67</v>
@@ -925,7 +925,7 @@
         <v>28</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s">
         <v>68</v>
@@ -960,7 +960,7 @@
         <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s">
         <v>70</v>
@@ -995,10 +995,10 @@
         <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -1030,7 +1030,7 @@
         <v>33</v>
       </c>
       <c r="J12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -1062,7 +1062,7 @@
         <v>35</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -1094,7 +1094,7 @@
         <v>29</v>
       </c>
       <c r="J14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s">
         <v>71</v>
@@ -1129,7 +1129,7 @@
         <v>27</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -1161,7 +1161,7 @@
         <v>30</v>
       </c>
       <c r="J16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/database/csv/data.xlsx
+++ b/database/csv/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khwarizmicoding\OneDrive\Desktop\sara_sara_mo\application\pfeSara\database\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCF028D-8E99-4A16-8010-8795E24F86E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78CFF7C-503B-4105-A411-B2D4F6AD11DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,7 +282,7 @@
     <t>corona virus|2019-03-10|algerie|30:2@9:3@32:5</t>
   </si>
   <si>
-    <t>Hôpital@1:3|8:4|10:2;Diagnostic@18:3|27:2|7:1;Traitement@15:2|24:4|18:4;Prescription@20:1|28:4;Chirurgie@3:3|14:4|28:3;Anesthésie@3:4|23:2;Cabinet@11:4|25:1|10:3; Spécialiste@11:5|24:3|21:1;Stéthoscope@2:4|16:4|28:2;Radiographie@4:3|14:2|22:4;Prélèvement sanguin@4:2|26:4;Vaccination@6:5|9:3|29:1;analyse@6:4|26:4|32:2</t>
+    <t>Hôpital@1:3|8:4|10:2;Diagnostic@18:3|27:2|7:1;Traitement@15:2|24:4|30:4;Prescription@20:1|28:4;Chirurgie@3:3|14:4|28:3;Anesthésie@3:4|23:2;Cabinet@11:4|25:1|10:3; Spécialiste@11:5|24:3|21:1;Stéthoscope@2:4|16:4|28:2;Radiographie@4:3|14:2|22:4;Prélèvement sanguin@4:2|26:4;Vaccination@6:5|9:3|29:1;analyse@6:4|26:4|31:2</t>
   </si>
 </sst>
 </file>
